--- a/data/trans_bre/P25A_4_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_4_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>107,85%</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-45,93%</t>
+          <t>-21,66%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-22,33%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-19,67%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,41</t>
+          <t>-2,31; 1,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,74</t>
+          <t>-2,59; 1,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 1,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-84,06; 211,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-93,04; 179,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>182,55%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -722,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 5,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,32</t>
+          <t>-4,55; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 7,99</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,12 +788,22 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,56; 695,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,3; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-53,45%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 2,88</t>
+          <t>-13,28; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 6,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,0</t>
+          <t>-12,78; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>-60,89%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-57,85%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-17,04%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,09</t>
+          <t>-1,53; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,03</t>
+          <t>-2,09; 0,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,42</t>
+          <t>-2,0; 0,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,57; 416,31</t>
+          <t>-1,4; 0,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 205,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,59; 309,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_4_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_4_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,149 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-21,66%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-22,33%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-19,67%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1673613617708828</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1293839812969643</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.4645783484539361</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>-0.1657830912033758</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.127494310854408</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3563498282255033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 1,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 1,36</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 1,48</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="n">
+        <v>-2.219500658114971</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.181828977674224</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.716567565870514</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="n">
+        <v>1.280293849609803</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.366538725967704</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.226718294692896</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 0,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.269080941327379</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.5893588585836139</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,61</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="n">
+        <v>-4.333338522252218</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.964789262101323</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,28; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,78; 0,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +777,153 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-60,89%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-57,85%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-17,04%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-2.546769476236609</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.069048185167153</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 0,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 0,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,0; 0,34</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 0,79</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.0760551211179</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>-11.38284342306684</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.2607813743895834</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.5965866696328658</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.517295207845145</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2082778083874474</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.5870921417474959</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.5449517117094065</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3299138320625815</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.326470570915341</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.976021711519293</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.821987860317056</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.630433736002775</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3801567037373628</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3955767664904877</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6390762493195131</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +931,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
